--- a/list_3_r.xlsx
+++ b/list_3_r.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="한국콜마" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="코스맥스" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="에이피알" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="달바글로벌" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1246,14 @@
         <v>479349</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>485883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1256,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,6 +2077,14 @@
         <v>351951</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>366242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2079,7 +2096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,6 +2908,14 @@
         <v>179248</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>185804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2902,7 +2927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3714,6 +3739,14 @@
         <v>257166</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>257613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3725,7 +3758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4537,6 +4570,845 @@
         <v>517865</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>533239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B2" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11673</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13234</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13740</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13942</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15753</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12933</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12679</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12817</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12815</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16153</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B28" t="n">
+        <v>17178</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B29" t="n">
+        <v>17680</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18674</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19546</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19939</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20124</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B35" t="n">
+        <v>18787</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18775</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18934</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B39" t="n">
+        <v>18507</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B40" t="n">
+        <v>18686</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20586</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20054</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19163</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19951</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21075</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B48" t="n">
+        <v>21680</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25748</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B50" t="n">
+        <v>25163</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B51" t="n">
+        <v>29028</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27531</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B53" t="n">
+        <v>27409</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B54" t="n">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B55" t="n">
+        <v>27782</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B56" t="n">
+        <v>28715</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28557</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B58" t="n">
+        <v>37533</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B59" t="n">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B60" t="n">
+        <v>49704</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B61" t="n">
+        <v>49251</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B62" t="n">
+        <v>49954</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B63" t="n">
+        <v>52945</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B64" t="n">
+        <v>54247</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56297</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B66" t="n">
+        <v>56293</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B67" t="n">
+        <v>55189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B68" t="n">
+        <v>56188</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B69" t="n">
+        <v>58256</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B70" t="n">
+        <v>58711</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B71" t="n">
+        <v>61242</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B72" t="n">
+        <v>61364</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B73" t="n">
+        <v>61489</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B74" t="n">
+        <v>60110</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B75" t="n">
+        <v>61288</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B76" t="n">
+        <v>62955</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B77" t="n">
+        <v>62569</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B78" t="n">
+        <v>64068</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B79" t="n">
+        <v>60363</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B80" t="n">
+        <v>59891</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B81" t="n">
+        <v>59581</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B82" t="n">
+        <v>58441</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B83" t="n">
+        <v>57951</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56105</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B85" t="n">
+        <v>57447</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B86" t="n">
+        <v>57161</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B87" t="n">
+        <v>57097</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B88" t="n">
+        <v>58205</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B89" t="n">
+        <v>56425</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B90" t="n">
+        <v>56208</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B91" t="n">
+        <v>55401</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B92" t="n">
+        <v>56394</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B93" t="n">
+        <v>54403</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B94" t="n">
+        <v>57423</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B95" t="n">
+        <v>56545</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B96" t="n">
+        <v>62741</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B97" t="n">
+        <v>63817</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B98" t="n">
+        <v>65132</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B99" t="n">
+        <v>62679</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B100" t="n">
+        <v>60948</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>58330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_3_r.xlsx
+++ b/list_3_r.xlsx
@@ -456,802 +456,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>223791</v>
+        <v>222782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>220811</v>
+        <v>230066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>222782</v>
+        <v>231072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>230066</v>
+        <v>236139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>231072</v>
+        <v>235873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>236139</v>
+        <v>241037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>235873</v>
+        <v>235423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>241037</v>
+        <v>238662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>235423</v>
+        <v>238396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>238662</v>
+        <v>241082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>238396</v>
+        <v>241312</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>241082</v>
+        <v>250095</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>241312</v>
+        <v>245470</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>250095</v>
+        <v>256094</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>245470</v>
+        <v>252477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>256094</v>
+        <v>259128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>252477</v>
+        <v>262474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>259128</v>
+        <v>259426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>262474</v>
+        <v>267196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>259426</v>
+        <v>287793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>267196</v>
+        <v>290334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>287793</v>
+        <v>292445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>290334</v>
+        <v>291732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>292445</v>
+        <v>298243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>291732</v>
+        <v>292685</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>298243</v>
+        <v>307634</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>292685</v>
+        <v>305941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>307634</v>
+        <v>315332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>305941</v>
+        <v>318347</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>315332</v>
+        <v>313763</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>318347</v>
+        <v>320496</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>313763</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>320496</v>
+        <v>327654</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>327600</v>
+        <v>334460</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>327654</v>
+        <v>335975</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>334460</v>
+        <v>330182</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>335975</v>
+        <v>336598</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>330182</v>
+        <v>330262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>336598</v>
+        <v>332910</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>330262</v>
+        <v>334555</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>332910</v>
+        <v>380854</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>334555</v>
+        <v>523872</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>380854</v>
+        <v>570374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>523872</v>
+        <v>541118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>570374</v>
+        <v>542161</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>541118</v>
+        <v>543688</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>542161</v>
+        <v>541330</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>543688</v>
+        <v>526978</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>541330</v>
+        <v>526698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>526978</v>
+        <v>537597</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>526698</v>
+        <v>523546</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>537597</v>
+        <v>506099</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>523546</v>
+        <v>522233</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>506099</v>
+        <v>524519</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>522233</v>
+        <v>519996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>524519</v>
+        <v>518022</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>519996</v>
+        <v>510203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>518022</v>
+        <v>508569</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>510203</v>
+        <v>491721</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>508569</v>
+        <v>489607</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>491721</v>
+        <v>482382</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>489607</v>
+        <v>487411</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>482382</v>
+        <v>478524</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>487411</v>
+        <v>491384</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>478524</v>
+        <v>482763</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>491384</v>
+        <v>486949</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>482763</v>
+        <v>475282</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>486949</v>
+        <v>478761</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>475282</v>
+        <v>482635</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>478761</v>
+        <v>489981</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>482635</v>
+        <v>469593</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>489981</v>
+        <v>450744</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>469593</v>
+        <v>443802</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>450744</v>
+        <v>443172</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>443802</v>
+        <v>433528</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>443172</v>
+        <v>432039</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>433528</v>
+        <v>431666</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>432039</v>
+        <v>422394</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>431666</v>
+        <v>425323</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>422394</v>
+        <v>424288</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>425323</v>
+        <v>418038</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>424288</v>
+        <v>425448</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>418038</v>
+        <v>423675</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>425448</v>
+        <v>428984</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>423675</v>
+        <v>433848</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>428984</v>
+        <v>453896</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>433848</v>
+        <v>456079</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>453896</v>
+        <v>449488</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>456079</v>
+        <v>454051</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>449488</v>
+        <v>464974</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>454051</v>
+        <v>463927</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>464974</v>
+        <v>464345</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>463927</v>
+        <v>453373</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>464345</v>
+        <v>467170</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>453373</v>
+        <v>463808</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>467170</v>
+        <v>466870</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>463808</v>
+        <v>479349</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>466870</v>
+        <v>485883</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>479349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>485883</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1287,802 +1287,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>358208</v>
+        <v>355292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>360177</v>
+        <v>365331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>355292</v>
+        <v>366924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>365331</v>
+        <v>371719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>366924</v>
+        <v>378276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>371719</v>
+        <v>397217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>378276</v>
+        <v>380500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>397217</v>
+        <v>384419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>380500</v>
+        <v>415521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>384419</v>
+        <v>422427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>415521</v>
+        <v>427781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>422427</v>
+        <v>462177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>427781</v>
+        <v>450229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>462177</v>
+        <v>490604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>450229</v>
+        <v>462665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>490604</v>
+        <v>465618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>462665</v>
+        <v>445803</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>465618</v>
+        <v>515240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>445803</v>
+        <v>511465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>515240</v>
+        <v>514116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>511465</v>
+        <v>513515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>514116</v>
+        <v>493520</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>513515</v>
+        <v>481910</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>493520</v>
+        <v>486058</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>481910</v>
+        <v>508124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>486058</v>
+        <v>524145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>508124</v>
+        <v>496169</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>524145</v>
+        <v>516648</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>496169</v>
+        <v>522820</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>516648</v>
+        <v>511243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>522820</v>
+        <v>546420</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>511243</v>
+        <v>540630</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>546420</v>
+        <v>513705</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>540630</v>
+        <v>505653</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>513705</v>
+        <v>514040</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>505653</v>
+        <v>518042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>514040</v>
+        <v>514062</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>518042</v>
+        <v>528634</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>514062</v>
+        <v>492081</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>528634</v>
+        <v>503337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>492081</v>
+        <v>528054</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>503337</v>
+        <v>503766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>528054</v>
+        <v>513782</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>503766</v>
+        <v>504014</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>513782</v>
+        <v>505428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>504014</v>
+        <v>508005</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>505428</v>
+        <v>500814</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>508005</v>
+        <v>492586</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>500814</v>
+        <v>466232</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>492586</v>
+        <v>475730</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>466232</v>
+        <v>454296</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>475730</v>
+        <v>464158</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>454296</v>
+        <v>465204</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>464158</v>
+        <v>456542</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>465204</v>
+        <v>450539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>456542</v>
+        <v>435670</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>450539</v>
+        <v>436469</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>435670</v>
+        <v>444879</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>436469</v>
+        <v>425307</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>444879</v>
+        <v>430139</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>425307</v>
+        <v>439167</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>430139</v>
+        <v>435015</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>439167</v>
+        <v>434477</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>435015</v>
+        <v>434312</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>434477</v>
+        <v>443845</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>434312</v>
+        <v>441921</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>443845</v>
+        <v>438877</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>441921</v>
+        <v>439134</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>438877</v>
+        <v>436310</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>439134</v>
+        <v>445199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>436310</v>
+        <v>442414</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>445199</v>
+        <v>443423</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>442414</v>
+        <v>446875</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>443423</v>
+        <v>414759</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>446875</v>
+        <v>413287</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>414759</v>
+        <v>410470</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>413287</v>
+        <v>370600</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>410470</v>
+        <v>372510</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>370600</v>
+        <v>377760</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>372510</v>
+        <v>375030</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>377760</v>
+        <v>359588</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>375030</v>
+        <v>371804</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>359588</v>
+        <v>362091</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>371804</v>
+        <v>365606</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>362091</v>
+        <v>369044</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>365606</v>
+        <v>361817</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>369044</v>
+        <v>362372</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>361817</v>
+        <v>361941</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>362372</v>
+        <v>368516</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>361941</v>
+        <v>364069</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>368516</v>
+        <v>359087</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>364069</v>
+        <v>365678</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>359087</v>
+        <v>358056</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>365678</v>
+        <v>351197</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>358056</v>
+        <v>347149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>351197</v>
+        <v>344832</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>347149</v>
+        <v>351951</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>344832</v>
+        <v>366242</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>351951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>366242</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2118,802 +2118,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>92716</v>
+        <v>96832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>94938</v>
+        <v>95575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>96832</v>
+        <v>106106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>95575</v>
+        <v>100795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>106106</v>
+        <v>103088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>100795</v>
+        <v>101290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>103088</v>
+        <v>98820</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>101290</v>
+        <v>100247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>98820</v>
+        <v>98214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>100247</v>
+        <v>100038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>98214</v>
+        <v>100658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>100038</v>
+        <v>105068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>100658</v>
+        <v>103799</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>105068</v>
+        <v>104338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>103799</v>
+        <v>104635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>104338</v>
+        <v>101458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>104635</v>
+        <v>132733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>101458</v>
+        <v>144731</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>132733</v>
+        <v>147172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>144731</v>
+        <v>147147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>147172</v>
+        <v>147465</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>147147</v>
+        <v>141110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>147465</v>
+        <v>146340</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>141110</v>
+        <v>152300</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>146340</v>
+        <v>159628</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>152300</v>
+        <v>165703</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>159628</v>
+        <v>160912</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>165703</v>
+        <v>164320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>160912</v>
+        <v>165153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>164320</v>
+        <v>162857</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>165153</v>
+        <v>167361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>162857</v>
+        <v>147824</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>167361</v>
+        <v>156086</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>147824</v>
+        <v>158223</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>156086</v>
+        <v>158014</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>158223</v>
+        <v>164128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>158014</v>
+        <v>161912</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>164128</v>
+        <v>150036</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>161912</v>
+        <v>152149</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>150036</v>
+        <v>153616</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>152149</v>
+        <v>159520</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>153616</v>
+        <v>150681</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>159520</v>
+        <v>148267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>150681</v>
+        <v>154528</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>148267</v>
+        <v>169292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>154528</v>
+        <v>174505</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>169292</v>
+        <v>168265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>174505</v>
+        <v>130525</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>168265</v>
+        <v>134719</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>130525</v>
+        <v>123379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>134719</v>
+        <v>123764</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>123379</v>
+        <v>128281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>123764</v>
+        <v>125154</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>128281</v>
+        <v>108099</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>125154</v>
+        <v>113852</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>108099</v>
+        <v>119428</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>113852</v>
+        <v>128310</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>119428</v>
+        <v>128456</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>128310</v>
+        <v>127840</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>128456</v>
+        <v>137620</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>127840</v>
+        <v>139899</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>137620</v>
+        <v>139674</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>139899</v>
+        <v>141065</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>139674</v>
+        <v>140410</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>141065</v>
+        <v>146757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>140410</v>
+        <v>146800</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>146757</v>
+        <v>149679</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>146800</v>
+        <v>151580</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>149679</v>
+        <v>149519</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>151580</v>
+        <v>151188</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>149519</v>
+        <v>143459</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>151188</v>
+        <v>142417</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>143459</v>
+        <v>143950</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>142417</v>
+        <v>144628</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>143950</v>
+        <v>147153</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>144628</v>
+        <v>145226</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>147153</v>
+        <v>146253</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>145226</v>
+        <v>144054</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>146253</v>
+        <v>144580</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>144054</v>
+        <v>143090</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>144580</v>
+        <v>141690</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>143090</v>
+        <v>144255</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>141690</v>
+        <v>142130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>144255</v>
+        <v>144725</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>142130</v>
+        <v>168346</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>144725</v>
+        <v>185733</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>168346</v>
+        <v>177503</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>185733</v>
+        <v>174347</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>177503</v>
+        <v>178113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>174347</v>
+        <v>177279</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>178113</v>
+        <v>177353</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>177279</v>
+        <v>182474</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>177353</v>
+        <v>184345</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>182474</v>
+        <v>183827</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>184345</v>
+        <v>182377</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>183827</v>
+        <v>178129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>182377</v>
+        <v>179248</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>178129</v>
+        <v>185804</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>179248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>185804</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2949,802 +2949,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>151523</v>
+        <v>161205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>160552</v>
+        <v>162549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>161205</v>
+        <v>165025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>162549</v>
+        <v>171126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>165025</v>
+        <v>170022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>171126</v>
+        <v>171576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>170022</v>
+        <v>168052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>171576</v>
+        <v>181693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>168052</v>
+        <v>186709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>181693</v>
+        <v>184984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>186709</v>
+        <v>189474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>184984</v>
+        <v>203383</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>189474</v>
+        <v>199431</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>203383</v>
+        <v>201491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>199431</v>
+        <v>197985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>201491</v>
+        <v>185564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>197985</v>
+        <v>184047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>185564</v>
+        <v>187600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>184047</v>
+        <v>196607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>187600</v>
+        <v>195032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>196607</v>
+        <v>212791</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>195032</v>
+        <v>199524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>212791</v>
+        <v>203977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>199524</v>
+        <v>208028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>203977</v>
+        <v>213906</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>208028</v>
+        <v>216905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>213906</v>
+        <v>206085</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>216905</v>
+        <v>202919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>206085</v>
+        <v>197112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>202919</v>
+        <v>190162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>197112</v>
+        <v>191679</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>190162</v>
+        <v>184019</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>191679</v>
+        <v>183661</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>184019</v>
+        <v>189587</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>183661</v>
+        <v>187922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>189587</v>
+        <v>185227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>187922</v>
+        <v>183805</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>185227</v>
+        <v>180751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>183805</v>
+        <v>177383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>180751</v>
+        <v>180354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>177383</v>
+        <v>186481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>180354</v>
+        <v>176796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>186481</v>
+        <v>177710</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>176796</v>
+        <v>184381</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>177710</v>
+        <v>188700</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>184381</v>
+        <v>195480</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>188700</v>
+        <v>198982</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>195480</v>
+        <v>180485</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>198982</v>
+        <v>163706</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>180485</v>
+        <v>182948</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>163706</v>
+        <v>206835</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>182948</v>
+        <v>209286</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>206835</v>
+        <v>214916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>209286</v>
+        <v>210524</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>214916</v>
+        <v>223422</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>210524</v>
+        <v>224655</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>223422</v>
+        <v>229436</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>224655</v>
+        <v>234599</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>229436</v>
+        <v>242906</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>234599</v>
+        <v>243539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>242906</v>
+        <v>238887</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>243539</v>
+        <v>233209</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>238887</v>
+        <v>215991</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>233209</v>
+        <v>220517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>215991</v>
+        <v>234994</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>220517</v>
+        <v>216048</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>234994</v>
+        <v>216532</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>216048</v>
+        <v>230989</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>216532</v>
+        <v>231927</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>230989</v>
+        <v>228171</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>231927</v>
+        <v>221364</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>228171</v>
+        <v>219212</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>221364</v>
+        <v>217183</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>219212</v>
+        <v>231311</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>217183</v>
+        <v>236231</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>231311</v>
+        <v>241386</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>236231</v>
+        <v>258365</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>241386</v>
+        <v>255187</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>258365</v>
+        <v>257352</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>255187</v>
+        <v>250272</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>257352</v>
+        <v>237361</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>250272</v>
+        <v>245479</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>237361</v>
+        <v>237344</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>245479</v>
+        <v>233744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>237344</v>
+        <v>237552</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>233744</v>
+        <v>245983</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>237552</v>
+        <v>242720</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>245983</v>
+        <v>237592</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>242720</v>
+        <v>243318</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>237592</v>
+        <v>244322</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>243318</v>
+        <v>243314</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>244322</v>
+        <v>257192</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>243314</v>
+        <v>253854</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>257192</v>
+        <v>256425</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>253854</v>
+        <v>254213</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>256425</v>
+        <v>253825</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>254213</v>
+        <v>257166</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>253825</v>
+        <v>257613</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>257166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>257613</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3780,802 +3780,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>115039</v>
+        <v>127120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>124013</v>
+        <v>125956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>127120</v>
+        <v>133585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>125956</v>
+        <v>134147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>133585</v>
+        <v>140444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>134147</v>
+        <v>138638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>140444</v>
+        <v>128716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>138638</v>
+        <v>110966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>128716</v>
+        <v>109079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>110966</v>
+        <v>110798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>109079</v>
+        <v>113234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>110798</v>
+        <v>118368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>113234</v>
+        <v>121897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>118368</v>
+        <v>125420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>121897</v>
+        <v>135727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>125420</v>
+        <v>134680</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>135727</v>
+        <v>133836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>134680</v>
+        <v>139570</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>133836</v>
+        <v>138347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>139570</v>
+        <v>140290</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>138347</v>
+        <v>147143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>140290</v>
+        <v>144187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>147143</v>
+        <v>157538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>144187</v>
+        <v>165910</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>157538</v>
+        <v>160815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>165910</v>
+        <v>157218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>160815</v>
+        <v>160846</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>157218</v>
+        <v>169231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>160846</v>
+        <v>167822</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>169231</v>
+        <v>166692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>167822</v>
+        <v>172992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>166692</v>
+        <v>165948</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>172992</v>
+        <v>166924</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>165948</v>
+        <v>172457</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>166924</v>
+        <v>177768</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>172457</v>
+        <v>170533</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>177768</v>
+        <v>163356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>170533</v>
+        <v>159607</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>163356</v>
+        <v>172588</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>159607</v>
+        <v>165200</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>172588</v>
+        <v>180483</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>165200</v>
+        <v>159861</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>180483</v>
+        <v>163955</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>159861</v>
+        <v>176802</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>163955</v>
+        <v>219941</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>176802</v>
+        <v>231270</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>219941</v>
+        <v>257105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>231270</v>
+        <v>251568</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>257105</v>
+        <v>234292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>251568</v>
+        <v>234543</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>234292</v>
+        <v>267823</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>234543</v>
+        <v>270103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>267823</v>
+        <v>286404</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>270103</v>
+        <v>323992</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>286404</v>
+        <v>349312</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>323992</v>
+        <v>328938</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>349312</v>
+        <v>333526</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>328938</v>
+        <v>342381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>333526</v>
+        <v>367384</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>342381</v>
+        <v>378791</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>367384</v>
+        <v>380927</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>378791</v>
+        <v>367932</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>380927</v>
+        <v>361651</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>367932</v>
+        <v>352957</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>361651</v>
+        <v>438139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>352957</v>
+        <v>435984</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>438139</v>
+        <v>456178</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>435984</v>
+        <v>470464</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>456178</v>
+        <v>462631</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>470464</v>
+        <v>465672</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>462631</v>
+        <v>440977</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>465672</v>
+        <v>434477</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>440977</v>
+        <v>433324</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>434477</v>
+        <v>428384</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>433324</v>
+        <v>412298</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>428384</v>
+        <v>425465</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>412298</v>
+        <v>395231</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>425465</v>
+        <v>378334</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>395231</v>
+        <v>372049</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>378334</v>
+        <v>384526</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>372049</v>
+        <v>353532</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>384526</v>
+        <v>396403</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>353532</v>
+        <v>401775</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>396403</v>
+        <v>435627</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>401775</v>
+        <v>460383</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>435627</v>
+        <v>481001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>460383</v>
+        <v>495257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>481001</v>
+        <v>463030</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>495257</v>
+        <v>483155</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>463030</v>
+        <v>520299</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>483155</v>
+        <v>531312</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>520299</v>
+        <v>526876</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>531312</v>
+        <v>517466</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>526876</v>
+        <v>478218</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>517466</v>
+        <v>495858</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>478218</v>
+        <v>500155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>495858</v>
+        <v>517865</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>500155</v>
+        <v>533239</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>517865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>533239</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4611,802 +4611,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>251</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>2687</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>4312</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>4274</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>4423</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>6294</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>6849</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>8390</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>11198</v>
+        <v>11867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>11673</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>11867</v>
+        <v>13740</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>13234</v>
+        <v>13942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>13740</v>
+        <v>15023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>13942</v>
+        <v>15753</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>15023</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>15753</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>12586</v>
+        <v>12137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>12266</v>
+        <v>12933</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>12137</v>
+        <v>12679</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>12933</v>
+        <v>12817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>12679</v>
+        <v>12982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>12817</v>
+        <v>12815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>12982</v>
+        <v>14176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>12815</v>
+        <v>16153</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>14176</v>
+        <v>17178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>16153</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>17178</v>
+        <v>18674</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>17680</v>
+        <v>19546</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>18674</v>
+        <v>19939</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>19546</v>
+        <v>19319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>19939</v>
+        <v>20124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>19319</v>
+        <v>18787</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>20124</v>
+        <v>19135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>18787</v>
+        <v>18775</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>19135</v>
+        <v>18934</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>18775</v>
+        <v>18507</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>18934</v>
+        <v>18686</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>18507</v>
+        <v>20374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>18686</v>
+        <v>20586</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>20374</v>
+        <v>20054</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>20586</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>20054</v>
+        <v>19163</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>20004</v>
+        <v>19951</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>19163</v>
+        <v>21075</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>19951</v>
+        <v>21680</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>21075</v>
+        <v>25748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>21680</v>
+        <v>25163</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>25748</v>
+        <v>29028</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>25163</v>
+        <v>27531</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>29028</v>
+        <v>27409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>27531</v>
+        <v>28523</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>27409</v>
+        <v>27782</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>28523</v>
+        <v>28715</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>27782</v>
+        <v>28557</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>28715</v>
+        <v>37533</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>28557</v>
+        <v>45210</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>37533</v>
+        <v>49704</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>45210</v>
+        <v>49251</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>49704</v>
+        <v>49954</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>49251</v>
+        <v>52945</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>49954</v>
+        <v>54247</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>52945</v>
+        <v>56297</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>54247</v>
+        <v>56293</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>56297</v>
+        <v>55189</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>56293</v>
+        <v>56188</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>55189</v>
+        <v>58256</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>56188</v>
+        <v>58711</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>58256</v>
+        <v>61242</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>58711</v>
+        <v>61364</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>61242</v>
+        <v>61489</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>61364</v>
+        <v>60110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>61489</v>
+        <v>61288</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>60110</v>
+        <v>62955</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>61288</v>
+        <v>62569</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>62955</v>
+        <v>64068</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>62569</v>
+        <v>60363</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>64068</v>
+        <v>59891</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>60363</v>
+        <v>59581</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>59891</v>
+        <v>58441</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>59581</v>
+        <v>57951</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>58441</v>
+        <v>56105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>57951</v>
+        <v>57447</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>56105</v>
+        <v>57161</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>57447</v>
+        <v>57097</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>57161</v>
+        <v>58205</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>57097</v>
+        <v>56425</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>58205</v>
+        <v>56208</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>56425</v>
+        <v>55401</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>56208</v>
+        <v>56394</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>55401</v>
+        <v>54403</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>56394</v>
+        <v>57423</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>54403</v>
+        <v>56545</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>57423</v>
+        <v>62741</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>56545</v>
+        <v>63817</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>62741</v>
+        <v>65132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>63817</v>
+        <v>62679</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>65132</v>
+        <v>60948</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>62679</v>
+        <v>58330</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>60948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>58330</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_3_r.xlsx
+++ b/list_3_r.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1243,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>471234</v>
       </c>
     </row>
     <row r="101">
@@ -1251,6 +1251,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>464924</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,7 +2082,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>357883</v>
       </c>
     </row>
     <row r="101">
@@ -2082,6 +2090,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>364003</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2096,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,7 +2921,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>181933</v>
       </c>
     </row>
     <row r="101">
@@ -2913,6 +2929,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>178109</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +2951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3736,7 +3760,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>257372</v>
       </c>
     </row>
     <row r="101">
@@ -3744,6 +3768,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>255552</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3758,7 +3790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4567,7 +4599,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>530238</v>
       </c>
     </row>
     <row r="101">
@@ -4575,6 +4607,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>563157</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4589,7 +4629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5398,7 +5438,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>58212</v>
       </c>
     </row>
     <row r="101">
@@ -5406,6 +5446,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>57920</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_3_r.xlsx
+++ b/list_3_r.xlsx
@@ -1259,7 +1259,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>490390</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2098,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>358804</v>
       </c>
     </row>
   </sheetData>
@@ -2937,7 +2937,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>176781</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3776,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>253427</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +4615,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>555184</v>
       </c>
     </row>
   </sheetData>
@@ -5454,7 +5454,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>56524</v>
       </c>
     </row>
   </sheetData>
